--- a/DbLayouts/L5-管理性作業/CollLaw.xlsx
+++ b/DbLayouts/L5-管理性作業/CollLaw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26077BD4-4FD2-4F2F-B0E6-B692BBBB17A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1EC861-9902-4A64-B6EF-0FD8A9273FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -266,10 +266,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate&gt;= , AND AcDate&lt;= ,AND CaseCode= ,AND CustNo= ,AND FacmNo= ,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>findSameCust</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -279,15 +275,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate DESC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>withoutFacmNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcDate&gt;= , AND AcDate&lt;= ,AND CaseCode= ,AND CustNo= </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -343,6 +331,18 @@
     <t>2021/5/7，新增
 *資料轉換時只轉主要擔保品</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordDate&gt;= , AND RecordDate&lt;= ,AND CaseCode= ,AND CustNo= ,AND FacmNo= ,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RecordDate&gt;= , AND RecordDate&lt;= ,AND CaseCode= ,AND CustNo= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordDate DESC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -979,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32.4">
@@ -1129,10 +1129,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>34</v>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32.4">
@@ -1150,10 +1150,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>34</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32.4">
@@ -1171,10 +1171,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>34</v>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1311,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1461,9 +1461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1490,54 +1490,54 @@
         <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
